--- a/data/trans_camb/P37_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P37_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>13,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8,84</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 12,08</t>
+          <t>-2,79; 23,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 10,62</t>
+          <t>-9,66; 14,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 11,66</t>
+          <t>-2,31; 32,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 5,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 2,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 11,42</t>
+          <t>-11,69; 8,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 5,23</t>
+          <t>-11,75; 7,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 3,91</t>
+          <t>-7,44; 17,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 7,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,09; 10,57</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 8,94</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 19,63</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>35,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,06%</t>
+          <t>-5,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,59%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>21,86%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 36,36</t>
+          <t>-6,51; 83,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 32,35</t>
+          <t>-22,22; 51,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 37,89</t>
+          <t>-6,32; 111,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 13,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 5,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 28,9</t>
+          <t>-23,1; 22,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 13,6</t>
+          <t>-23,35; 20,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 10,2</t>
+          <t>-13,6; 46,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 19,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 29,06</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-16,41; 26,04</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 53,38</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,02</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,66</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,75</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,98</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,13</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,13</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 3,91</t>
+          <t>-10,35; 6,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 8,16</t>
+          <t>-7,25; 8,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 10,86</t>
+          <t>-5,21; 12,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 4,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 9,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 13,41</t>
+          <t>-5,43; 8,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 2,0</t>
+          <t>-1,18; 12,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 7,24</t>
+          <t>-2,19; 13,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 10,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 5,1</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 8,53</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 10,82</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,43%</t>
+          <t>-4,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-0,13%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,3%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 11,6</t>
+          <t>-24,41; 19,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 25,12</t>
+          <t>-17,25; 27,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 33,88</t>
+          <t>-12,55; 37,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 11,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 27,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 37,09</t>
+          <t>-13,15; 25,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 5,7</t>
+          <t>-3,12; 37,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 20,92</t>
+          <t>-5,12; 40,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 29,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-14,48; 15,01</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 24,44</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 30,72</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,77</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,43</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,53</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 6,64</t>
+          <t>-8,78; 8,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 6,63</t>
+          <t>-8,78; 7,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 18,48</t>
+          <t>-4,77; 14,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 13,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 13,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 18,95</t>
+          <t>-1,7; 12,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 8,5</t>
+          <t>-1,99; 11,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 8,52</t>
+          <t>-2,85; 10,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 15,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 8,24</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 7,69</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 10,38</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>37,85%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>7,44%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 24,67</t>
+          <t>-23,72; 30,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 24,79</t>
+          <t>-24,26; 29,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 68,93</t>
+          <t>-13,5; 56,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,81; 53,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,68; 51,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,08; 75,29</t>
+          <t>-5,08; 43,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 31,59</t>
+          <t>-5,54; 41,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 32,35</t>
+          <t>-8,46; 39,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,77; 57,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-7,13; 29,61</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-8,55; 28,13</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 37,0</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-8,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-4,08</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,49</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 3,66</t>
+          <t>-16,05; -0,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 5,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 10,11</t>
+          <t>-11,19; 5,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 5,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 6,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,85; 11,52</t>
+          <t>-5,81; 7,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 3,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 4,55</t>
+          <t>-7,59; 6,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 10,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 1,61</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-7,35; 3,93</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,26%</t>
+          <t>-22,51%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-10,68%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-3,89%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 11,74</t>
+          <t>-39,03; -0,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 15,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,72; 31,14</t>
+          <t>-27,42; 15,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 15,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 17,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,57; 32,78</t>
+          <t>-14,03; 21,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 10,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 13,33</t>
+          <t>-18,81; 18,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,7; 29,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-23,63; 4,8</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-18,11; 10,92</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,77</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,83</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 3,19</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 4,26</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 8,13</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 5,56</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 6,97</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,22; 8,24</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 2,99</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 4,47</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 6,67</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,26%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8,58%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>9,44%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-15,55; 9,68</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-11,24; 12,71</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 24,06</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 15,72</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 19,57</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 23,22</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-7,22; 8,46</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 12,85</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 18,85</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
